--- a/biology/Médecine/1313_en_santé_et_médecine/1313_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1313_en_santé_et_médecine/1313_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1313_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1313_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1313 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1313_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1313_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22 mai : fondation à Nîmes, par Raymond Ruffi, d'un hôtel-Dieu (« domus Dei ») de douze lits[1] qui est à l'une des origines de l'actuel CHU.
-1er juillet : inauguration par Guillem de Vilamarí (ca), évêque de Gérone, de l'hôpital fondé à Vilabertran près Figueras en Catalogne par Bernat Jaume (ca) et sa femme, Garsenda[2].
-Novembre : un règlement porte « défense aux femmes d'exercer la chirurgie à Paris sans avoir été examinées par un jury compétent[3] ».
-Création à Toulouse en Languedoc, par réunion des hôpitaux Novel et Sainte-Marie de la Daurade, respectivement fondés en 1225 et 1230, de l'hôpital Saint-Jacques du bout du pont, qui prendra, en 1554, le nom d'hôtel-Dieu Saint-Jacques[4].
-Fondation d'un hôpital hors les murs de Saint-Avold en Lorraine par l'abbé de Saint Nabor ; cet établissement sera détruit en 1380[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 mai : fondation à Nîmes, par Raymond Ruffi, d'un hôtel-Dieu (« domus Dei ») de douze lits qui est à l'une des origines de l'actuel CHU.
+1er juillet : inauguration par Guillem de Vilamarí (ca), évêque de Gérone, de l'hôpital fondé à Vilabertran près Figueras en Catalogne par Bernat Jaume (ca) et sa femme, Garsenda.
+Novembre : un règlement porte « défense aux femmes d'exercer la chirurgie à Paris sans avoir été examinées par un jury compétent ».
+Création à Toulouse en Languedoc, par réunion des hôpitaux Novel et Sainte-Marie de la Daurade, respectivement fondés en 1225 et 1230, de l'hôpital Saint-Jacques du bout du pont, qui prendra, en 1554, le nom d'hôtel-Dieu Saint-Jacques.
+Fondation d'un hôpital hors les murs de Saint-Avold en Lorraine par l'abbé de Saint Nabor ; cet établissement sera détruit en 1380.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1313_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1313_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1313-1314 : Rashid al-Din (1247-1318), grand vizir et médecin du prince mongol Oldjaïtou, petit-fils de Gengis Khan, rédige l'introduction et dirige la publication en persan du  Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »), premier des ouvrages à travers lesquels la médecine chinoise se fera connaître en Occident[6]'[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1313-1314 : Rashid al-Din (1247-1318), grand vizir et médecin du prince mongol Oldjaïtou, petit-fils de Gengis Khan, rédige l'introduction et dirige la publication en persan du  Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »), premier des ouvrages à travers lesquels la médecine chinoise se fera connaître en Occident'.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1313_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1313_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 novembre : Ibn al-Khatib (mort en 1374), historien, homme de lettres et médecin arabe andalou, auteur, parmi d'autres nombreux ouvrages de médecine, de l'Amal Man Tabba Li-Man Habba, traité de pathologie dédié à l'émir du Maroc Abu Salim Ibrahim (en)[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 novembre : Ibn al-Khatib (mort en 1374), historien, homme de lettres et médecin arabe andalou, auteur, parmi d'autres nombreux ouvrages de médecine, de l'Amal Man Tabba Li-Man Habba, traité de pathologie dédié à l'émir du Maroc Abu Salim Ibrahim (en).</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1313_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1313_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 septembre : Goetz de Haguenau (en) (né avant 1275, probablement à Haguenau, ville du Saint-Empire), médecin, théologien et poète[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 septembre : Goetz de Haguenau (en) (né avant 1275, probablement à Haguenau, ville du Saint-Empire), médecin, théologien et poète.</t>
         </is>
       </c>
     </row>
